--- a/stimuli_tr/multipleye-stimuli-practice-tr.xlsx
+++ b/stimuli_tr/multipleye-stimuli-practice-tr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/debor/repos/wg1-image-creation/stimuli_tr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B3A569-751F-D44B-9512-CD62647303E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204C951A-8814-B24B-AB92-18E3ABEB52D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="28800" windowHeight="15800" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
+    <workbookView xWindow="7600" yWindow="820" windowWidth="28800" windowHeight="15740" xr2:uid="{CEBC6618-956B-204A-83A9-65FF22486C43}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="72">
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>To investigate how the brain processes texts while reading.</t>
-  </si>
-  <si>
-    <t>It can be used to find out if people are tired.</t>
-  </si>
-  <si>
-    <t>To coordinate between different reasearch groups.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>a</t>
   </si>
@@ -181,9 +169,6 @@
   </si>
   <si>
     <t>correct_answer_key_q3_practice</t>
-  </si>
-  <si>
-    <t>From my hotel room window, I see an oversized billboard with his face on it: Jason, the Great Magician.I absent-mindedly turn the pages of the phone book and come across a city map. Sipping my iced latté, I run my fingers along the streets from the hotel to the opera hall. Not more than a half-hour walk. I glance at the clock. The show starts in one hour. Plenty of time! I gulp the last three sips of my latté and hop in the shower. Soon I’m on my way to the show, carrying a fancy black handbag and a genuine smile. The billboard looks even more impressive from outside. The Great Jason's eyes seem to be glancing through me. </t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -200,74 +185,102 @@
 Blogun sade siyah-beyaz teması, teknoloji bloguna uygun şık bir görünüm sunuyor. Web sitesine erişildiğinde, ziyaretçilerin gözleri hemen en son ve popüler makalelerinin fotoğrafları ve başlıklarının bir kolajına çekilir. Sayfanın daha aşağısında, daha fazla makale başlığı en yeniden en eskiye doğru sıralanmış ve makalenin içeriğini özetleyen bir resim ve cümle ile birlikte sunulur. Bu, ziyaretçilere blogun çeşitli içeriklerle düzenli olarak güncellendiğini bildirir.</t>
   </si>
   <si>
-    <t>çoktan seçmeli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MultiplEYE COST eyleminin amaçlarından biri nedir?
-</t>
-  </si>
-  <si>
-    <t>Bu tekrar bir soru mu?</t>
-  </si>
-  <si>
-    <t>MultiplEYE'ın bir zorluğu nedir?</t>
-  </si>
-  <si>
-    <t>Sınavlar için insanların nasıl öğrendiğini araştırmak.</t>
-  </si>
-  <si>
-    <t>Okurken beynin metinleri nasıl işlediğini araştırmak.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-İnsanların çok okuyup okumadığını öğrenmek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bu, insanların yorgun olup olmadığını bulmak için kullanılır. </t>
-  </si>
-  <si>
     <t xml:space="preserve">
 Titriyorum ve daha hızlı yürüyorum. Kendimi doğum günü hediyelerini açmaya hazırlanan bir çocuk gibi hissediyorum. Salon karanlıkken içeri girerken; gösteri başlamak üzere. Büyük sihirbaz şapkasını takarken sahnenin arkasına doğru ilerliyorum. "Baba, seni gördüğüme çok sevindim," diyorum hafif bir fısıltıyla. "Yazar atölyesi için şehirdeyim, ama senin gösterini kaçıramazdım." Ona hızlıca sarılıyorum ve şaşkın bir gülümsemeyle onu bırakıp oturma alanına geri dönüyorum. Karanlıkta yerime oturuyorum ve perdeler açılıyor. Sihir gibi, o gösteri hala Büyük Jason'ın en iyi performansı olarak kalır.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Gerçekten kullanışlı değil, ancak araştırmacılar onu incelemeyi eğlenceli buluyorlar.</t>
-  </si>
-  <si>
-    <t>Ağ oluşturma etkinlikleri için herhangi bir para sağlanmadığı.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Zaten çok fazla veri mevcut..</t>
-  </si>
-  <si>
-    <t>MultiplEYE COST eyleminin amaçlarından biri nedir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-İnsanların çok okuyup okumadığını öğrenmek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">İki kişinin alakalı olup olmadığını bulabiliriz. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">iki kişinin alakalı olup olmadığını bulabiliriz. </t>
-  </si>
-  <si>
-    <t>Farklı araştırma grupları arasında koordinasyon sağlamak.</t>
-  </si>
-  <si>
-    <t>Practice_first</t>
-  </si>
-  <si>
-    <t>Practice_second</t>
+    <t>Otel odamın penceresinden, yüzünde olan büyük bir reklam panosunu görüyorum: Jason, Büyük Sihirbaz. Dalgınca telefon rehberinin sayfalarını çeviriyorum ve bir şehir haritasına rastlıyorum. İced latté'mi yudumlarken, otelden operahane salonuna kadar sokakları parmaklarımla takip ediyorum. Yarı saatten fazla bir yürüme mesafesi yok. Saate bakıyorum. Gösteri bir saat sonra başlıyor. Bolca zamanım var! Iced latté'min son üç yudumunu içiyorum ve duşa atlıyorum. Kısa süre sonra gösteriye gidiyorum, şık siyah bir el çantası ve içten bir gülümsemeyle. Reklam panosu dışarıdan daha etkileyici görünüyor. Büyük Jason'ın gözleri sanki beni süzüyormuş gibi görünüyor.</t>
+  </si>
+  <si>
+    <t>Engadget, hangi konular hakkında içerik sunmaktadır?</t>
+  </si>
+  <si>
+    <t>Spor ve egzersiz</t>
+  </si>
+  <si>
+    <t>Teknoloji ve tüketici elektroniği</t>
+  </si>
+  <si>
+    <t>Gösteriye yetişmek için</t>
+  </si>
+  <si>
+    <t>Telefon rehberini incelemek için</t>
+  </si>
+  <si>
+    <t>Reklam panosunu incelemek için</t>
+  </si>
+  <si>
+    <t>Jason'ın şöhreti ve sihirbazlık yetenekleri</t>
+  </si>
+  <si>
+    <t>Jason'ın doğum günü partisi planları</t>
+  </si>
+  <si>
+    <t>Jason'ın şehir dışındaki seyahati</t>
+  </si>
+  <si>
+    <t>Metindeki ana karakter, neden otelden dışarı çıkmaya karar verir?</t>
+  </si>
+  <si>
+    <t>Metinde bahsedilen Büyük Jason'ın kim olduğu hakkında ne tür bir ipucu bulunmaktadır?</t>
+  </si>
+  <si>
+    <t>Ana karakterin Büyük Jason ile ilişkisi nedir?</t>
+  </si>
+  <si>
+    <t>Ana karakter Jason'ın eski arkadaş</t>
+  </si>
+  <si>
+    <t>Ana karakter Jason'ın eski arkadaşıdır.</t>
+  </si>
+  <si>
+    <t>Moda ve giyim</t>
+  </si>
+  <si>
+    <t>Bu blogun temasının siyah-beyaz olması neden önemlidir?</t>
+  </si>
+  <si>
+    <t>Ziyaretçilere blogun güncellendiği nasıl bildirilir?</t>
+  </si>
+  <si>
+    <t>Teknolojiye uygun bir tema sunar.</t>
+  </si>
+  <si>
+    <t>Makale başlıkları ve özetleyici resimlerle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populer makalelerin sıralanması ile </t>
+  </si>
+  <si>
+    <t>Görsel sadelik sunar.</t>
+  </si>
+  <si>
+    <t>Fotoğraf ve başlık kolajı ile</t>
+  </si>
+  <si>
+    <t>Daha çekici bir görünüm sağlar</t>
+  </si>
+  <si>
+    <t>Ana karakter Jason'ın babasıdır</t>
+  </si>
+  <si>
+    <t>multiple choice</t>
+  </si>
+  <si>
+    <t>Teknolojiye uygun bir tema sunar</t>
+  </si>
+  <si>
+    <t>practice_first</t>
+  </si>
+  <si>
+    <t>practice_second</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -276,28 +289,49 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="162"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+      <charset val="162"/>
+    </font>
+    <font>
       <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF374151"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Calibri (Body)"/>
-      <charset val="162"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,8 +350,14 @@
         <bgColor theme="9" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE2EFDA"/>
+        <bgColor rgb="FFE2EFDA"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -349,15 +389,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="9" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFA9D08E"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA9D08E"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -365,16 +437,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -689,402 +773,404 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F40A6B78-2830-0A44-97D8-ED183F8E9C4D}">
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AP13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="43.5" style="10" customWidth="1"/>
-    <col min="4" max="4" width="43.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="43.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="3" customWidth="1"/>
     <col min="21" max="26" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="48" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:42" ht="48" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="G1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="I1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="J1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="K1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="L1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="M1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="N1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="P1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="Q1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="R1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="S1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="T1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="U1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="V1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="W1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="X1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="Y1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Z1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="AA1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AB1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AC1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AD1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AG1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AH1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AI1" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AJ1" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AK1" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AN1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="AK1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:42" ht="306" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="U2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="X2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="3"/>
+    </row>
+    <row r="3" spans="1:42" ht="238" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="AN1" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" ht="306" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="AC3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="6" t="s">
+      <c r="AK3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40" ht="238" x14ac:dyDescent="0.2">
-      <c r="A3" s="7">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="O3" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="X3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="AF3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8"/>
-      <c r="AI3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="AJ3" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="AK3" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="AL3" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-    </row>
-    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-    </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
-    </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
-    </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
-    </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
-    </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
-      <c r="A13" s="8"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="AN8" s="3"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
